--- a/output/Results1.xlsx
+++ b/output/Results1.xlsx
@@ -50,7 +50,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -529,10 +529,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -612,21 +613,21 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mj-lt"/>
-                <a:ea typeface="+mj-ea"/>
-                <a:cs typeface="+mj-cs"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IN"/>
-              <a:t>Performance Comparisions</a:t>
+              <a:t>Single Patient Classifier</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -635,8 +636,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.30115966754155732"/>
-          <c:y val="3.2407407407407406E-2"/>
+          <c:x val="0.33341771794654701"/>
+          <c:y val="3.5711925414834707E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -652,16 +653,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
-              <a:ea typeface="+mj-ea"/>
-              <a:cs typeface="+mj-cs"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -708,17 +709,17 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -729,7 +730,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inEnd"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -743,14 +744,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -782,7 +782,7 @@
             <c:numRef>
               <c:f>Comparision!$B$13:$E$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.97495265259999986</c:v>
@@ -833,17 +833,17 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -854,7 +854,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inEnd"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -868,14 +868,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -907,7 +906,7 @@
             <c:numRef>
               <c:f>Comparision!$B$14:$E$14</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.99946999999999997</c:v>
@@ -958,17 +957,17 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -979,7 +978,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inEnd"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -993,14 +992,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -1032,7 +1030,7 @@
             <c:numRef>
               <c:f>Comparision!$B$15:$E$15</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.99921590692298723</c:v>
@@ -1051,7 +1049,7 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -1059,13 +1057,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="267"/>
-        <c:overlap val="-43"/>
-        <c:axId val="573515008"/>
-        <c:axId val="573515552"/>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="2127489568"/>
+        <c:axId val="2127490112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="573515008"/>
+        <c:axId val="2127489568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1075,7 +1073,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="dk1">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -1093,7 +1091,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
+              <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -1107,9 +1105,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -1122,7 +1120,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573515552"/>
+        <c:crossAx val="2127490112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1130,73 +1128,22 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="573515552"/>
+        <c:axId val="2127490112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="573515008"/>
+        <c:crossAx val="2127489568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:pattFill prst="ltDnDiag">
-          <a:fgClr>
-            <a:schemeClr val="dk1">
-              <a:lumMod val="15000"/>
-              <a:lumOff val="85000"/>
-            </a:schemeClr>
-          </a:fgClr>
-          <a:bgClr>
-            <a:schemeClr val="lt1"/>
-          </a:bgClr>
-        </a:pattFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1204,7 +1151,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1221,7 +1168,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -1245,7 +1192,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1313,25 +1260,25 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="208">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -1339,7 +1286,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1347,9 +1294,9 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1362,7 +1309,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1377,12 +1324,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -1473,9 +1423,9 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln w="15875">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1483,7 +1433,7 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1507,23 +1457,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="800" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -1539,14 +1488,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1558,14 +1506,13 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1577,11 +1524,11 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1595,19 +1542,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1619,7 +1553,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1636,14 +1570,13 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1655,14 +1588,13 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1674,14 +1606,13 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1690,57 +1621,50 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:plotArea3D>
   <cs:seriesAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1751,9 +1675,9 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -1766,13 +1690,13 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="major">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1788,6 +1712,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1796,12 +1721,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -1814,14 +1739,13 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1830,11 +1754,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1844,19 +1779,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1865,16 +1787,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2830,7 +2752,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="A12" sqref="A12:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3304,19 +3226,19 @@
       <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <f>AVERAGE(B2:B11)</f>
         <v>0.97495265259999986</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <f>AVERAGE(C2:C11)</f>
         <v>0.97218436009999998</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <f>AVERAGE(D2:D11)</f>
         <v>0.1576263339</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="3">
         <f>AVERAGE(E2:E11)</f>
         <v>0.2704313545</v>
       </c>
@@ -3325,19 +3247,19 @@
       <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <f>AVERAGE(F2:F11)</f>
         <v>0.99946999999999997</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <f>AVERAGE(G2:G11)</f>
         <v>0.91230999999999951</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="3">
         <f>AVERAGE(H2:H11)</f>
         <v>0.97371999999999981</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="3">
         <f>AVERAGE(I2:I11)</f>
         <v>0.94153861629067492</v>
       </c>
@@ -3346,19 +3268,19 @@
       <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <f>AVERAGE(J2:J11)</f>
         <v>0.99921590692298723</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <f>AVERAGE(K2:K11)</f>
         <v>0.83645525193592296</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="3">
         <f>AVERAGE(L2:L11)</f>
         <v>0.99364919354838721</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="3">
         <f>AVERAGE(M2:M11)</f>
         <v>0.9073815838674687</v>
       </c>
